--- a/Data/metadaten_grafiken.xlsx
+++ b/Data/metadaten_grafiken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_september2022/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_805C546DC3574AFC12484817D2058F70389BD707" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE63EFA9-C152-4C7A-AABB-6E5562230142}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_805C546DC3574AFC12484817D2058F70389BD707" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E63C6B-43F6-46A2-975D-75E7B673F842}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35280" yWindow="3552" windowWidth="8508" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
   <si>
     <t>Typ</t>
   </si>
@@ -388,6 +388,102 @@
   </si>
   <si>
     <t>&lt;iframe title="Modifica della legge federale sull’imposta preventiva (Rafforzamento del mercato dei capitali di terzi)" aria-label="Mappa" id="datawrapper-chart-l3b1d" src="https://datawrapper.dwcdn.net/l3b1d/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="497"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>ZH_Steuergeschenke</t>
+  </si>
+  <si>
+    <t>ZH_Kreislauf</t>
+  </si>
+  <si>
+    <t>BE_Stimmrecht16</t>
+  </si>
+  <si>
+    <t>VD_Conseil</t>
+  </si>
+  <si>
+    <t>NE_Soins_Dentaires</t>
+  </si>
+  <si>
+    <t>Kantonale Vorlage</t>
+  </si>
+  <si>
+    <t>Kantonale Volksinitiative «Keine Steuergeschenke für Grossaktionärinnen und Grossaktionäre»</t>
+  </si>
+  <si>
+    <t>LgQzd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/LgQzd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kantonale Volksinitiative «Keine Steuergeschenke für Grossaktionärinnen und Grossaktionäre»" aria-label="Karte" id="datawrapper-chart-LgQzd" src="https://datawrapper.dwcdn.net/LgQzd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Verfassung des Kantons Zürich (Änderung vom 31. Januar 2022, Gegenvorschlag zur «Kreislauf-Initiative»)</t>
+  </si>
+  <si>
+    <t>P0ZhW</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/P0ZhW/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Verfassung des Kantons Zürich (Änderung vom 31. Januar 2022, Gegenvorschlag zur «Kreislauf-Initiative»)" aria-label="Karte" id="datawrapper-chart-P0ZhW" src="https://datawrapper.dwcdn.net/P0ZhW/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung (Stimmrechtsalter 16)</t>
+  </si>
+  <si>
+    <t>UGESt</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/UGESt/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung der Kantonsverfassung (Stimmrechtsalter 16)" aria-label="Karte" id="datawrapper-chart-UGESt" src="https://datawrapper.dwcdn.net/UGESt/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Révision partielle de la Constitution liée à la création du Conseil de la magistrature</t>
+  </si>
+  <si>
+    <t>nqOuI</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/nqOuI/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Révision partielle de la Constitution liée à la création du Conseil de la magistrature" aria-label="Map" id="datawrapper-chart-nqOuI" src="https://datawrapper.dwcdn.net/nqOuI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Initiative constitutionnelle populaire cantonale « Pour une assurance des soins dentaires »</t>
+  </si>
+  <si>
+    <t>N0lx0</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/N0lx0/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative constitutionnelle populaire cantonale « Pour une assurance des soins dentaires »" aria-label="Map" id="datawrapper-chart-N0lx0" src="https://datawrapper.dwcdn.net/N0lx0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Modification de la Constitution cantonale (Le droit de vote à 16 ans)</t>
+  </si>
+  <si>
+    <t>Goii1</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Goii1/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modification de la Constitution cantonale (Le droit de vote à 16 ans)" aria-label="Map" id="datawrapper-chart-Goii1" src="https://datawrapper.dwcdn.net/Goii1/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="511"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(e){if(void 0!==e.data["datawrapper-height"]){var t=document.querySelectorAll("iframe");for(var a in e.data["datawrapper-height"])for(var r=0;r&lt;t.length;r++){if(t[r].contentWindow===e.source)t[r].style.height=e.data["datawrapper-height"][a]+"px"}}}))}();
 &lt;/script&gt;</t>
   </si>
 </sst>
@@ -395,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -426,6 +522,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -450,10 +554,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -467,8 +572,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,7 +907,7 @@
     <col min="7" max="7" width="133" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -860,7 +969,7 @@
       <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1442,8 +1551,149 @@
         <v>113</v>
       </c>
     </row>
+    <row r="29" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{BCAD28A6-2F05-46A2-BDE6-847E579486A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>